--- a/Project/01_data-input/wiiw/fexc.xlsx
+++ b/Project/01_data-input/wiiw/fexc.xlsx
@@ -5,23 +5,23 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\wiiw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Project\01_data-input\wiiw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA8AB39-DA11-41E9-AFD7-437BCDF06858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A5776E8-86B8-4961-8674-DBFD43FD0F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Data_clean" sheetId="3" r:id="rId2"/>
+    <sheet name="Data_clean" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Extracted on:</t>
   </si>
   <si>
-    <t>2024-08-04 11:33:30</t>
+    <t>2024-08-13 18:27:31</t>
   </si>
   <si>
     <t>Country-Code</t>
@@ -83,6 +83,12 @@
     <t>Eurostat, Bank of Albania</t>
   </si>
   <si>
+    <t>NCU/USD, period average</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>BA</t>
   </si>
   <si>
@@ -92,6 +98,18 @@
     <t>Eurostat, Central Bank of Bosnia and Herzegovina</t>
   </si>
   <si>
+    <t>XK</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Central Bank of Kosovo</t>
+  </si>
+  <si>
+    <t>European Central Bank, wiiw</t>
+  </si>
+  <si>
     <t>MD</t>
   </si>
   <si>
@@ -107,9 +125,6 @@
     <t>Montenegro</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Central Bank of Montenegro</t>
   </si>
   <si>
@@ -137,22 +152,25 @@
     <t>http://wiiw.ac.at/annual-database.html</t>
   </si>
   <si>
+    <t>NUTS</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>BA00</t>
   </si>
   <si>
-    <t>NUTS</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>XK00</t>
   </si>
   <si>
     <t>MD00</t>
   </si>
   <si>
-    <t>Kosovo</t>
+    <t>NCU/EUR</t>
+  </si>
+  <si>
+    <t>NCU/USD</t>
   </si>
 </sst>
 </file>
@@ -162,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -173,21 +191,18 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -195,13 +210,6 @@
       <sz val="8"/>
       <color rgb="FF0101DF"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -233,7 +241,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,11 +545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10:Z10"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -755,90 +762,90 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9" s="3">
-        <v>1.95583</v>
+        <v>143.54698999999999</v>
       </c>
       <c r="H9" s="3">
-        <v>1.95583</v>
+        <v>143.4457347</v>
       </c>
       <c r="I9" s="3">
-        <v>1.95583</v>
+        <v>139.9746193</v>
       </c>
       <c r="J9" s="3">
-        <v>1.95583</v>
+        <v>121.56117399999999</v>
       </c>
       <c r="K9" s="3">
-        <v>1.95583</v>
+        <v>102.6368679</v>
       </c>
       <c r="L9" s="3">
-        <v>1.95583</v>
+        <v>99.823165299999999</v>
       </c>
       <c r="M9" s="3">
-        <v>1.95583</v>
+        <v>98.024848700000007</v>
       </c>
       <c r="N9" s="3">
-        <v>1.95583</v>
+        <v>90.2079533</v>
       </c>
       <c r="O9" s="3">
-        <v>1.95583</v>
+        <v>83.491977199999994</v>
       </c>
       <c r="P9" s="3">
-        <v>1.95583</v>
+        <v>94.680240900000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>1.95583</v>
+        <v>103.9375424</v>
       </c>
       <c r="R9" s="3">
-        <v>1.95583</v>
+        <v>100.8117816</v>
       </c>
       <c r="S9" s="3">
-        <v>1.95583</v>
+        <v>108.21917809999999</v>
       </c>
       <c r="T9" s="3">
-        <v>1.95583</v>
+        <v>105.6095174</v>
       </c>
       <c r="U9" s="3">
-        <v>1.95583</v>
+        <v>105.3594279</v>
       </c>
       <c r="V9" s="3">
-        <v>1.95583</v>
+        <v>125.94862550000001</v>
       </c>
       <c r="W9" s="3">
-        <v>1.95583</v>
+        <v>124.0943175</v>
       </c>
       <c r="X9" s="3">
-        <v>1.95583</v>
+        <v>118.7483403</v>
       </c>
       <c r="Y9" s="3">
-        <v>1.95583</v>
+        <v>108.0355631</v>
       </c>
       <c r="Z9" s="3">
-        <v>1.95583</v>
+        <v>109.87941050000001</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -850,155 +857,155 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="3">
-        <v>11.4945</v>
+        <v>1.95583</v>
       </c>
       <c r="H10" s="3">
-        <v>11.523899999999999</v>
+        <v>1.95583</v>
       </c>
       <c r="I10" s="3">
-        <v>12.8337</v>
+        <v>1.95583</v>
       </c>
       <c r="J10" s="3">
-        <v>15.7403</v>
+        <v>1.95583</v>
       </c>
       <c r="K10" s="3">
-        <v>15.3286</v>
+        <v>1.95583</v>
       </c>
       <c r="L10" s="3">
-        <v>15.697800000000001</v>
+        <v>1.95583</v>
       </c>
       <c r="M10" s="3">
-        <v>16.491800000000001</v>
+        <v>1.95583</v>
       </c>
       <c r="N10" s="3">
-        <v>16.598600000000001</v>
+        <v>1.95583</v>
       </c>
       <c r="O10" s="3">
-        <v>15.291600000000001</v>
+        <v>1.95583</v>
       </c>
       <c r="P10" s="3">
-        <v>15.524800000000001</v>
+        <v>1.95583</v>
       </c>
       <c r="Q10" s="3">
-        <v>16.3995</v>
+        <v>1.95583</v>
       </c>
       <c r="R10" s="3">
-        <v>16.3369</v>
+        <v>1.95583</v>
       </c>
       <c r="S10" s="3">
-        <v>15.5632</v>
+        <v>1.95583</v>
       </c>
       <c r="T10" s="3">
-        <v>16.7241</v>
+        <v>1.95583</v>
       </c>
       <c r="U10" s="3">
-        <v>18.632100000000001</v>
+        <v>1.95583</v>
       </c>
       <c r="V10" s="3">
-        <v>20.898048767123299</v>
+        <v>1.95583</v>
       </c>
       <c r="W10" s="3">
-        <v>22.0548</v>
+        <v>1.95583</v>
       </c>
       <c r="X10" s="3">
-        <v>20.828199999999999</v>
+        <v>1.95583</v>
       </c>
       <c r="Y10" s="3">
-        <v>19.844200000000001</v>
+        <v>1.95583</v>
       </c>
       <c r="Z10" s="3">
-        <v>19.674099999999999</v>
+        <v>1.95583</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>2.1176159000000001</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>2.1838209000000002</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>2.0683481000000001</v>
       </c>
       <c r="J11" s="3">
-        <v>1</v>
+        <v>1.7289869</v>
       </c>
       <c r="K11" s="3">
-        <v>1</v>
+        <v>1.5723370000000001</v>
       </c>
       <c r="L11" s="3">
-        <v>1</v>
+        <v>1.5720841999999999</v>
       </c>
       <c r="M11" s="3">
-        <v>1</v>
+        <v>1.5576855999999999</v>
       </c>
       <c r="N11" s="3">
-        <v>1</v>
+        <v>1.4270923</v>
       </c>
       <c r="O11" s="3">
-        <v>1</v>
+        <v>1.3297729</v>
       </c>
       <c r="P11" s="3">
-        <v>1</v>
+        <v>1.4022296999999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>1</v>
+        <v>1.4753187000000001</v>
       </c>
       <c r="R11" s="3">
-        <v>1</v>
+        <v>1.4050503000000001</v>
       </c>
       <c r="S11" s="3">
-        <v>1</v>
+        <v>1.5222836</v>
       </c>
       <c r="T11" s="3">
-        <v>1</v>
+        <v>1.4726527</v>
       </c>
       <c r="U11" s="3">
-        <v>1</v>
+        <v>1.4722093000000001</v>
       </c>
       <c r="V11" s="3">
-        <v>1</v>
+        <v>1.7628031</v>
       </c>
       <c r="W11" s="3">
-        <v>1</v>
+        <v>1.7669436999999999</v>
       </c>
       <c r="X11" s="3">
-        <v>1</v>
+        <v>1.7312825999999999</v>
       </c>
       <c r="Y11" s="3">
-        <v>1</v>
+        <v>1.6560796</v>
       </c>
       <c r="Z11" s="3">
-        <v>1</v>
+        <v>1.7470566999999999</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -1007,181 +1014,821 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G12" s="3">
-        <v>60.725700000000003</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
-        <v>60.9131</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3">
-        <v>60.9786</v>
+        <v>1</v>
       </c>
       <c r="J12" s="3">
-        <v>61.263100000000001</v>
+        <v>1</v>
       </c>
       <c r="K12" s="3">
-        <v>61.337200000000003</v>
+        <v>1</v>
       </c>
       <c r="L12" s="3">
-        <v>61.296999999999997</v>
+        <v>1</v>
       </c>
       <c r="M12" s="3">
-        <v>61.189599999999999</v>
+        <v>1</v>
       </c>
       <c r="N12" s="3">
-        <v>61.184699999999999</v>
+        <v>1</v>
       </c>
       <c r="O12" s="3">
-        <v>61.264600000000002</v>
+        <v>1</v>
       </c>
       <c r="P12" s="3">
-        <v>61.275599999999997</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="3">
-        <v>61.519199999999998</v>
+        <v>1</v>
       </c>
       <c r="R12" s="3">
-        <v>61.529200000000003</v>
+        <v>1</v>
       </c>
       <c r="S12" s="3">
-        <v>61.531599999999997</v>
+        <v>1</v>
       </c>
       <c r="T12" s="3">
-        <v>61.585000000000001</v>
+        <v>1</v>
       </c>
       <c r="U12" s="3">
-        <v>61.624400000000001</v>
+        <v>1</v>
       </c>
       <c r="V12" s="3">
-        <v>61.610999999999997</v>
+        <v>1</v>
       </c>
       <c r="W12" s="3">
-        <v>61.595500000000001</v>
+        <v>1</v>
       </c>
       <c r="X12" s="3">
-        <v>61.5747</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="3">
-        <v>61.511499999999998</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="3">
-        <v>61.506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.0827198</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.1165699</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.0575296000000001</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.88401700000000005</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.8039231</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.80379389999999995</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.79643200000000003</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.72966070000000005</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.67990209999999995</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.71694869999999999</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.7543185</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.7183908</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.77833129999999995</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.75295529999999999</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.75272859999999997</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0.90130690000000002</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0.903424</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0.88519080000000006</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0.8467401</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0.89325589999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="3">
+        <v>11.4945</v>
+      </c>
+      <c r="H14" s="3">
+        <v>11.523899999999999</v>
+      </c>
+      <c r="I14" s="3">
+        <v>12.8337</v>
+      </c>
+      <c r="J14" s="3">
+        <v>15.7403</v>
+      </c>
+      <c r="K14" s="3">
+        <v>15.3286</v>
+      </c>
+      <c r="L14" s="3">
+        <v>15.697800000000001</v>
+      </c>
+      <c r="M14" s="3">
+        <v>16.491800000000001</v>
+      </c>
+      <c r="N14" s="3">
+        <v>16.598600000000001</v>
+      </c>
+      <c r="O14" s="3">
+        <v>15.291600000000001</v>
+      </c>
+      <c r="P14" s="3">
+        <v>15.524800000000001</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>16.3995</v>
+      </c>
+      <c r="R14" s="3">
+        <v>16.3369</v>
+      </c>
+      <c r="S14" s="3">
+        <v>15.5632</v>
+      </c>
+      <c r="T14" s="3">
+        <v>16.7241</v>
+      </c>
+      <c r="U14" s="3">
+        <v>18.632100000000001</v>
+      </c>
+      <c r="V14" s="3">
+        <v>20.898048767123299</v>
+      </c>
+      <c r="W14" s="3">
+        <v>22.0548</v>
+      </c>
+      <c r="X14" s="3">
+        <v>20.828199999999999</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>19.844200000000001</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>19.674099999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="3">
+        <v>12.433400000000001</v>
+      </c>
+      <c r="H15" s="3">
+        <v>12.8668</v>
+      </c>
+      <c r="I15" s="3">
+        <v>13.573</v>
+      </c>
+      <c r="J15" s="3">
+        <v>13.942600000000001</v>
+      </c>
+      <c r="K15" s="3">
+        <v>12.3283</v>
+      </c>
+      <c r="L15" s="3">
+        <v>12.600300000000001</v>
+      </c>
+      <c r="M15" s="3">
+        <v>13.1319</v>
+      </c>
+      <c r="N15" s="3">
+        <v>12.136200000000001</v>
+      </c>
+      <c r="O15" s="3">
+        <v>10.3895</v>
+      </c>
+      <c r="P15" s="3">
+        <v>11.1134</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>12.366300000000001</v>
+      </c>
+      <c r="R15" s="3">
+        <v>11.737</v>
+      </c>
+      <c r="S15" s="3">
+        <v>12.1122</v>
+      </c>
+      <c r="T15" s="3">
+        <v>12.5907</v>
+      </c>
+      <c r="U15" s="3">
+        <v>14.0388</v>
+      </c>
+      <c r="V15" s="3">
+        <v>18.8161073972603</v>
+      </c>
+      <c r="W15" s="3">
+        <v>19.9238</v>
+      </c>
+      <c r="X15" s="3">
+        <v>18.490200000000002</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>16.803100000000001</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>17.575099999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1</v>
+      </c>
+      <c r="W16" s="3">
+        <v>1</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G17" s="3">
+        <v>1.0827198</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1.1165699</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.0575296000000001</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.88401700000000005</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.8039231</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.80379389999999995</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.79643200000000003</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.72966070000000005</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.67990209999999995</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.71694869999999999</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0.7543185</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.7183908</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0.77833129999999995</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.75295529999999999</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0.75272859999999997</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0.90130690000000002</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0.903424</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0.88519080000000006</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0.8467401</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0.89325589999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="3">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="3">
+        <v>60.725700000000003</v>
+      </c>
+      <c r="H18" s="3">
+        <v>60.9131</v>
+      </c>
+      <c r="I18" s="3">
+        <v>60.9786</v>
+      </c>
+      <c r="J18" s="3">
+        <v>61.263100000000001</v>
+      </c>
+      <c r="K18" s="3">
+        <v>61.337200000000003</v>
+      </c>
+      <c r="L18" s="3">
+        <v>61.296999999999997</v>
+      </c>
+      <c r="M18" s="3">
+        <v>61.189599999999999</v>
+      </c>
+      <c r="N18" s="3">
+        <v>61.184699999999999</v>
+      </c>
+      <c r="O18" s="3">
+        <v>61.264600000000002</v>
+      </c>
+      <c r="P18" s="3">
+        <v>61.275599999999997</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>61.519199999999998</v>
+      </c>
+      <c r="R18" s="3">
+        <v>61.529200000000003</v>
+      </c>
+      <c r="S18" s="3">
+        <v>61.531599999999997</v>
+      </c>
+      <c r="T18" s="3">
+        <v>61.585000000000001</v>
+      </c>
+      <c r="U18" s="3">
+        <v>61.624400000000001</v>
+      </c>
+      <c r="V18" s="3">
+        <v>61.610999999999997</v>
+      </c>
+      <c r="W18" s="3">
+        <v>61.595500000000001</v>
+      </c>
+      <c r="X18" s="3">
+        <v>61.5747</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>61.511499999999998</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>61.506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="3">
+        <v>65.748917300000002</v>
+      </c>
+      <c r="H19" s="3">
+        <v>68.013733799999997</v>
+      </c>
+      <c r="I19" s="3">
+        <v>64.486675099999999</v>
+      </c>
+      <c r="J19" s="3">
+        <v>54.157620199999997</v>
+      </c>
+      <c r="K19" s="3">
+        <v>49.310394700000003</v>
+      </c>
+      <c r="L19" s="3">
+        <v>49.270155099999997</v>
+      </c>
+      <c r="M19" s="3">
+        <v>48.733354599999998</v>
+      </c>
+      <c r="N19" s="3">
+        <v>44.644071500000003</v>
+      </c>
+      <c r="O19" s="3">
+        <v>41.6539298</v>
+      </c>
+      <c r="P19" s="3">
+        <v>43.931459699999998</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>46.405068999999997</v>
+      </c>
+      <c r="R19" s="3">
+        <v>44.202011499999998</v>
+      </c>
+      <c r="S19" s="3">
+        <v>47.891967600000001</v>
+      </c>
+      <c r="T19" s="3">
+        <v>46.370755199999998</v>
+      </c>
+      <c r="U19" s="3">
+        <v>46.3864509</v>
+      </c>
+      <c r="V19" s="3">
+        <v>55.530419100000003</v>
+      </c>
+      <c r="W19" s="3">
+        <v>55.646851599999998</v>
+      </c>
+      <c r="X19" s="3">
+        <v>54.505355399999999</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>52.084250599999997</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>54.9405985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3">
         <v>15.238</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H20" s="3">
         <v>59.463000000000001</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I20" s="3">
         <v>60.694000000000003</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J20" s="3">
         <v>65.117000000000004</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K20" s="3">
         <v>72.693700000000007</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L20" s="3">
         <v>82.990399999999994</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M20" s="3">
         <v>84.110100000000003</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N20" s="3">
         <v>79.963999999999999</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O20" s="3">
         <v>81.4405</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P20" s="3">
         <v>93.951700000000002</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q20" s="3">
         <v>103.0431</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R20" s="3">
         <v>101.9502</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S20" s="3">
         <v>113.1277</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T20" s="3">
         <v>113.1369</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U20" s="3">
         <v>117.306</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V20" s="3">
         <v>120.7328</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W20" s="3">
         <v>123.11790000000001</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X20" s="3">
         <v>121.33669999999999</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y20" s="3">
         <v>118.27160000000001</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z20" s="3">
         <v>117.8524</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="3">
+        <v>16.4984842</v>
+      </c>
+      <c r="H21" s="3">
+        <v>66.394595800000005</v>
+      </c>
+      <c r="I21" s="3">
+        <v>64.185702199999994</v>
+      </c>
+      <c r="J21" s="3">
+        <v>57.5645332</v>
+      </c>
+      <c r="K21" s="3">
+        <v>58.440147899999999</v>
+      </c>
+      <c r="L21" s="3">
+        <v>66.707177900000005</v>
+      </c>
+      <c r="M21" s="3">
+        <v>66.9879739</v>
+      </c>
+      <c r="N21" s="3">
+        <v>58.346588799999999</v>
+      </c>
+      <c r="O21" s="3">
+        <v>55.3715665</v>
+      </c>
+      <c r="P21" s="3">
+        <v>67.358546000000004</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>77.727313899999999</v>
+      </c>
+      <c r="R21" s="3">
+        <v>73.240086199999993</v>
+      </c>
+      <c r="S21" s="3">
+        <v>88.050825000000003</v>
+      </c>
+      <c r="T21" s="3">
+        <v>85.187034100000005</v>
+      </c>
+      <c r="U21" s="3">
+        <v>88.299586000000005</v>
+      </c>
+      <c r="V21" s="3">
+        <v>108.8173051</v>
+      </c>
+      <c r="W21" s="3">
+        <v>111.2276628</v>
+      </c>
+      <c r="X21" s="3">
+        <v>107.4061255</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>100.1453006</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>105.2723537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>37</v>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D1F935-1F6F-4C93-914C-27AC14041D70}">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FB6CE3-B238-4B19-A8F6-605DAF3188FF}">
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1194,10 +1841,10 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>12</v>
@@ -1264,14 +1911,14 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>38</v>
+      <c r="A2" t="s">
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3">
         <v>1.95583</v>
@@ -1335,146 +1982,365 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>42</v>
+      <c r="A3" t="s">
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3">
+        <v>2.1176159000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.1838209000000002</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2.0683481000000001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.7289869</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.5723370000000001</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.5720841999999999</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.5576855999999999</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.4270923</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.3297729</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1.4022296999999999</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1.4753187000000001</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1.4050503000000001</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1.5222836</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1.4726527</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1.4722093000000001</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1.7628031</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1.7669436999999999</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1.7312825999999999</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1.6560796</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1.7470566999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.0827198</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.1165699</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.0575296000000001</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.88401700000000005</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.8039231</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.80379389999999995</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.79643200000000003</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.72966070000000005</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.67990209999999995</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.71694869999999999</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.7543185</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.7183908</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.77833129999999995</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.75295529999999999</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.75272859999999997</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.90130690000000002</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.903424</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.88519080000000006</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.8467401</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.89325589999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3">
         <v>11.4945</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E6" s="3">
         <v>11.523899999999999</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F6" s="3">
         <v>12.8337</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G6" s="3">
         <v>15.7403</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H6" s="3">
         <v>15.3286</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I6" s="3">
         <v>15.697800000000001</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J6" s="3">
         <v>16.491800000000001</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K6" s="3">
         <v>16.598600000000001</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L6" s="3">
         <v>15.291600000000001</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M6" s="3">
         <v>15.524800000000001</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N6" s="3">
         <v>16.3995</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O6" s="3">
         <v>16.3369</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P6" s="3">
         <v>15.5632</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q6" s="3">
         <v>16.7241</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R6" s="3">
         <v>18.632100000000001</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S6" s="3">
         <v>20.898048767123299</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T6" s="3">
         <v>22.0548</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U6" s="3">
         <v>20.828199999999999</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V6" s="3">
         <v>19.844200000000001</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W6" s="3">
         <v>19.674099999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3">
-        <v>1</v>
-      </c>
-      <c r="V4" s="3">
-        <v>1</v>
-      </c>
-      <c r="W4" s="3">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3">
+        <v>12.433400000000001</v>
+      </c>
+      <c r="E7" s="3">
+        <v>12.8668</v>
+      </c>
+      <c r="F7" s="3">
+        <v>13.573</v>
+      </c>
+      <c r="G7" s="3">
+        <v>13.942600000000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>12.3283</v>
+      </c>
+      <c r="I7" s="3">
+        <v>12.600300000000001</v>
+      </c>
+      <c r="J7" s="3">
+        <v>13.1319</v>
+      </c>
+      <c r="K7" s="3">
+        <v>12.136200000000001</v>
+      </c>
+      <c r="L7" s="3">
+        <v>10.3895</v>
+      </c>
+      <c r="M7" s="3">
+        <v>11.1134</v>
+      </c>
+      <c r="N7" s="3">
+        <v>12.366300000000001</v>
+      </c>
+      <c r="O7" s="3">
+        <v>11.737</v>
+      </c>
+      <c r="P7" s="3">
+        <v>12.1122</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>12.5907</v>
+      </c>
+      <c r="R7" s="3">
+        <v>14.0388</v>
+      </c>
+      <c r="S7" s="3">
+        <v>18.8161073972603</v>
+      </c>
+      <c r="T7" s="3">
+        <v>19.9238</v>
+      </c>
+      <c r="U7" s="3">
+        <v>18.490200000000002</v>
+      </c>
+      <c r="V7" s="3">
+        <v>16.803100000000001</v>
+      </c>
+      <c r="W7" s="3">
+        <v>17.575099999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B10" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
